--- a/service-system/src/main/resources/static/交安标线厚度新.xlsx
+++ b/service-system/src/main/resources/static/交安标线厚度新.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026533DF-E100-4DA8-8D8C-C04EFBB1183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20917" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="标线" sheetId="1" r:id="rId1"/>
@@ -20,28 +14,17 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">标线!$A$1:$S$37</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">标线!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{81C575F1-BEC5-49E0-BF20-4241F4B8E7C9}">
+    <comment ref="A8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="H8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="Q8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{7D91FF23-FF85-4560-86F2-A44C671683C6}">
+    <comment ref="A13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{80C9EE52-BE55-48F1-9A49-7AF38CAEF72C}">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -217,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{EEC210E8-3C04-4CEC-9A2E-5DCB5ABF04B5}">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{D776FC87-58C2-4A09-9817-8350B4580C89}">
+    <comment ref="A28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A33" authorId="0" shapeId="0" xr:uid="{D4A35517-4FB5-40C4-8FF1-058BBC723105}">
+    <comment ref="A33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +273,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
-    <t>总点数</t>
+    <t>道路交通标线施工质量鉴定表</t>
   </si>
   <si>
     <t>项目名称</t>
@@ -347,6 +330,9 @@
     <t>合计</t>
   </si>
   <si>
+    <t>总点数</t>
+  </si>
+  <si>
     <t>合格点数</t>
   </si>
   <si>
@@ -358,23 +344,23 @@
   <si>
     <t>备注：</t>
   </si>
-  <si>
-    <t>道路交通标线施工质量鉴定表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="9">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
     <numFmt numFmtId="180" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +377,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -430,10 +424,148 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -441,37 +573,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,8 +598,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -655,41 +949,361 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,151 +1312,104 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -858,9 +1425,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1147,282 +1711,282 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1:AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="3.86328125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="3.86328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="3.86328125" style="5" customWidth="1"/>
-    <col min="9" max="10" width="3.86328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="3.86328125" style="5" customWidth="1"/>
-    <col min="12" max="13" width="3.86328125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.86328125" style="5" customWidth="1"/>
-    <col min="15" max="16" width="3.86328125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="3.86328125" style="5" customWidth="1"/>
-    <col min="18" max="19" width="3.86328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.13274336283186" style="20" customWidth="1"/>
+    <col min="2" max="2" width="4.46902654867257" style="20" customWidth="1"/>
+    <col min="3" max="3" width="6.13274336283186" style="20" customWidth="1"/>
+    <col min="4" max="4" width="5.13274336283186" style="20" customWidth="1"/>
+    <col min="5" max="5" width="3.86725663716814" style="21" customWidth="1"/>
+    <col min="6" max="7" width="3.86725663716814" style="22" customWidth="1"/>
+    <col min="8" max="8" width="3.86725663716814" style="23" customWidth="1"/>
+    <col min="9" max="10" width="3.86725663716814" style="22" customWidth="1"/>
+    <col min="11" max="11" width="3.86725663716814" style="23" customWidth="1"/>
+    <col min="12" max="13" width="3.86725663716814" style="22" customWidth="1"/>
+    <col min="14" max="14" width="3.86725663716814" style="23" customWidth="1"/>
+    <col min="15" max="16" width="3.86725663716814" style="22" customWidth="1"/>
+    <col min="17" max="17" width="3.86725663716814" style="23" customWidth="1"/>
+    <col min="18" max="19" width="3.86725663716814" style="20" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="17"/>
-    </row>
-    <row r="2" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="1" ht="27.75" customHeight="1" spans="1:27">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="49"/>
+    </row>
+    <row r="2" ht="23.1" customHeight="1" spans="1:27">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="18"/>
-    </row>
-    <row r="3" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="M2" s="43"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="51"/>
+    </row>
+    <row r="3" ht="23.1" customHeight="1" spans="1:27">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+    </row>
+    <row r="4" ht="23.1" customHeight="1" spans="1:27">
+      <c r="A4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="28" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="51"/>
+    </row>
+    <row r="5" ht="21.95" customHeight="1" spans="1:27">
+      <c r="A5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="32" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="AA5" s="19"/>
-    </row>
-    <row r="6" spans="1:27" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="AA5" s="52"/>
+    </row>
+    <row r="6" ht="23.1" customHeight="1" spans="1:27">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="AA6" s="19"/>
-    </row>
-    <row r="7" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="45"/>
+      <c r="AA6" s="52"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:27">
+      <c r="A7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="34">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="34">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="34">
         <v>3</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="34">
         <v>4</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="34">
         <v>5</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="S7" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="19"/>
-    </row>
-    <row r="8" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="16">
+      <c r="AA7" s="52"/>
+    </row>
+    <row r="8" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48">
         <v>1.8</v>
       </c>
       <c r="U8">
@@ -1432,27 +1996,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="16">
+    <row r="9" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48">
         <v>1.8</v>
       </c>
       <c r="U9">
@@ -1462,27 +2026,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16">
+    <row r="10" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48">
         <v>1.8</v>
       </c>
       <c r="U10">
@@ -1492,27 +2056,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="16">
+    <row r="11" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="48">
         <v>1.8</v>
       </c>
       <c r="U11">
@@ -1522,27 +2086,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16">
+    <row r="12" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A12" s="41"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="48">
         <v>1.8</v>
       </c>
       <c r="U12">
@@ -1552,27 +2116,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="16">
+    <row r="13" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48">
         <v>1.8</v>
       </c>
       <c r="U13">
@@ -1582,27 +2146,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="16">
+    <row r="14" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A14" s="41"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48">
         <v>1.8</v>
       </c>
       <c r="U14">
@@ -1612,27 +2176,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16">
+    <row r="15" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A15" s="41"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="48">
         <v>1.8</v>
       </c>
       <c r="U15">
@@ -1642,27 +2206,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="16">
+    <row r="16" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A16" s="41"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48">
         <v>1.8</v>
       </c>
       <c r="U16">
@@ -1672,27 +2236,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16">
+    <row r="17" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A17" s="41"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="48">
         <v>1.8</v>
       </c>
       <c r="U17">
@@ -1702,27 +2266,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16">
+    <row r="18" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A18" s="36"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="48">
         <v>1.8</v>
       </c>
       <c r="U18">
@@ -1732,27 +2296,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="16">
+    <row r="19" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A19" s="41"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48">
         <v>1.8</v>
       </c>
       <c r="U19">
@@ -1762,27 +2326,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="1" customFormat="1" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="16">
+    <row r="20" s="19" customFormat="1" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A20" s="41"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48">
         <v>1.8</v>
       </c>
       <c r="U20">
@@ -1792,27 +2356,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="16">
+    <row r="21" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A21" s="41"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48">
         <v>1.8</v>
       </c>
       <c r="U21">
@@ -1822,27 +2386,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="16">
+    <row r="22" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A22" s="41"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="48">
         <v>1.8</v>
       </c>
       <c r="U22">
@@ -1852,27 +2416,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="16">
+    <row r="23" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="48">
         <v>1.8</v>
       </c>
       <c r="U23">
@@ -1882,27 +2446,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="16">
+    <row r="24" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A24" s="41"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48">
         <v>1.8</v>
       </c>
       <c r="U24">
@@ -1912,27 +2476,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="16">
+    <row r="25" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A25" s="41"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="48">
         <v>1.8</v>
       </c>
       <c r="U25">
@@ -1942,27 +2506,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="18.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="16">
+    <row r="26" ht="18.2" customHeight="1" spans="1:22">
+      <c r="A26" s="41"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="48">
         <v>1.8</v>
       </c>
       <c r="U26">
@@ -1972,27 +2536,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="16">
+    <row r="27" ht="18" customHeight="1" spans="1:22">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="48">
         <v>1.8</v>
       </c>
       <c r="U27">
@@ -2002,27 +2566,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="16">
+    <row r="28" ht="18" customHeight="1" spans="1:22">
+      <c r="A28" s="36"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="48">
         <v>1.8</v>
       </c>
       <c r="U28">
@@ -2032,27 +2596,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="16">
+    <row r="29" ht="18" customHeight="1" spans="1:22">
+      <c r="A29" s="41"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="48">
         <v>1.8</v>
       </c>
       <c r="U29">
@@ -2062,27 +2626,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="16">
+    <row r="30" ht="18" customHeight="1" spans="1:22">
+      <c r="A30" s="41"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="48">
         <v>1.8</v>
       </c>
       <c r="U30">
@@ -2092,27 +2656,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="16">
+    <row r="31" ht="18" customHeight="1" spans="1:22">
+      <c r="A31" s="41"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="48">
         <v>1.8</v>
       </c>
       <c r="U31">
@@ -2122,27 +2686,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="16">
+    <row r="32" ht="18" customHeight="1" spans="1:22">
+      <c r="A32" s="41"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="48">
         <v>1.8</v>
       </c>
       <c r="U32">
@@ -2152,27 +2716,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="16">
+    <row r="33" ht="18" customHeight="1" spans="1:22">
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="48">
         <v>1.8</v>
       </c>
       <c r="U33">
@@ -2182,27 +2746,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="16">
+    <row r="34" ht="18" customHeight="1" spans="1:22">
+      <c r="A34" s="41"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="48">
         <v>1.8</v>
       </c>
       <c r="U34">
@@ -2212,27 +2776,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="16">
+    <row r="35" ht="18" customHeight="1" spans="1:22">
+      <c r="A35" s="41"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="48">
         <v>1.8</v>
       </c>
       <c r="U35">
@@ -2242,27 +2806,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="16">
+    <row r="36" ht="18" customHeight="1" spans="1:22">
+      <c r="A36" s="41"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="48">
         <v>1.8</v>
       </c>
       <c r="U36">
@@ -2272,27 +2836,27 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="16">
+    <row r="37" ht="18" customHeight="1" spans="1:22">
+      <c r="A37" s="41"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="48">
         <v>1.8</v>
       </c>
       <c r="U37">
@@ -2304,10 +2868,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:S5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:S6"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:S2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:N3"/>
@@ -2316,196 +2881,194 @@
     <mergeCell ref="E4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:S5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:S6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B33:S37 E1:Q32 E38:Q1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2.3</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.98425196850393704" right="0.31496062992125984" top="0.78740157480314965" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.70866141732283472"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.984027777777778" right="0.314583333333333" top="0.786805555555556" bottom="0.984027777777778" header="0.314583333333333" footer="0.708333333333333"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C
-陕西交建公路工程试验检测有限公司&amp;R
+陕西交控工程技术有限公司&amp;R
 第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;L      检测：&amp;R复核：</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S5"/>
+      <selection activeCell="A1" sqref="A1:S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" customWidth="1"/>
-    <col min="2" max="2" width="4.46484375" customWidth="1"/>
-    <col min="3" max="3" width="6.1328125" customWidth="1"/>
-    <col min="4" max="4" width="5.1328125" customWidth="1"/>
-    <col min="5" max="19" width="3.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.13274336283186" customWidth="1"/>
+    <col min="2" max="2" width="4.46902654867257" customWidth="1"/>
+    <col min="3" max="3" width="6.13274336283186" customWidth="1"/>
+    <col min="4" max="4" width="5.13274336283186" customWidth="1"/>
+    <col min="5" max="19" width="3.86725663716814" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:19">
+      <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="11">
         <f>COUNT(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="26"/>
-    </row>
-    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="25" t="e">
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:19">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="11" t="e">
         <f>COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")+COUNTIF(#REF!,"√")</f>
         <v>#REF!</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="26"/>
-    </row>
-    <row r="3" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="25" t="e">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:19">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="11" t="e">
         <f>COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")+COUNTIF(#REF!,"×")</f>
         <v>#REF!</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="40" t="e">
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:19">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="15" t="e">
         <f>O2/O1*100</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="44"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:19">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A1:I4"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="O3:S3"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A1:I4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E1:Q5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>2.3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>